--- a/biology/Zoologie/Gonionotophis_brussauxi/Gonionotophis_brussauxi.xlsx
+++ b/biology/Zoologie/Gonionotophis_brussauxi/Gonionotophis_brussauxi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gonionotophis brussauxi est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonionotophis brussauxi est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Cameroun ;
 au Gabon ;
 en République du Congo ;
@@ -545,9 +559,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Gonionotophis brussauxi brussauxi (Mocquard, 1889)
 Gonionotophis brussauxi prigoginei Laurent, 1956</t>
         </is>
@@ -577,9 +593,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Eugène Brussaux[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Eugène Brussaux.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mocquard, 1889 : Sur une collection de reptiles du Congo. Bulletin de la Société Philomatique de Paris, sér. 8, vol. 1, p. 145-148 (texte intégral).
 Laurent, 1956 : Contribution à l'herpétologie de la région des Grands Lacs de l'Afrique centrale. I. Généeralites, II. Cheloniens, III. Ophidiens. Annales du Musée du Congo Belge Zoologiques, sér. 8, vol. 48, p. 1-390.</t>
